--- a/resources/excelFiles/login.xlsx
+++ b/resources/excelFiles/login.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\ivbAutomation\resources\excelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E2FDA6-C367-4647-9E51-847F93F10260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB483287-D770-485C-ABA9-C4B4EBEADB07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{471F3FA2-3834-4198-BE08-B0190EF384B4}"/>
   </bookViews>
@@ -398,7 +398,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
